--- a/data/trans_bre/P07B_R_2023-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P07B_R_2023-Habitat-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>2.179904555223777</v>
+        <v>2.179904555223779</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.3403126703184133</v>
+        <v>0.3403126703184136</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.5156265119841952</v>
+        <v>-0.4711796834158613</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.06258616624438947</v>
+        <v>-0.06326276894290131</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.521081025176072</v>
+        <v>4.499214939634123</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.905942989399332</v>
+        <v>0.8925511386447805</v>
       </c>
     </row>
     <row r="7">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.556131190508286</v>
+        <v>2.788001515760475</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.4339549601834098</v>
+        <v>0.4632938056311844</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.643539307328671</v>
+        <v>6.469918025263651</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.878795105570019</v>
+        <v>1.858105650444894</v>
       </c>
     </row>
     <row r="10">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2537536070908406</v>
+        <v>-0.4273993416369421</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.03897127337004042</v>
+        <v>-0.04596977692732201</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.938024225711251</v>
+        <v>5.101255607716084</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.9350963629700609</v>
+        <v>1.000073694029485</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>3.559859059878332</v>
+        <v>3.559859059878333</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.458847809916096</v>
+        <v>0.4588478099160963</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.296491591165567</v>
+        <v>0.9810905507155725</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1423255277030032</v>
+        <v>0.09218459868515469</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.145452019022756</v>
+        <v>5.976154454957585</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.9951039799060286</v>
+        <v>0.8827713802844052</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>3.428283956869549</v>
+        <v>3.428283956869548</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.550449582359787</v>
+        <v>0.5504495823597866</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.217086967032508</v>
+        <v>2.291899298717254</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0.327678275000358</v>
+        <v>0.3274296778928618</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.580640164478269</v>
+        <v>4.638346241410514</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.8296960830299138</v>
+        <v>0.8381565726459553</v>
       </c>
     </row>
     <row r="19">
